--- a/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-diagnosis-encounter.xlsx
+++ b/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-diagnosis-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T13:01:09+00:00</t>
+    <t>2023-02-02T13:08:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-diagnosis-encounter.xlsx
+++ b/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-diagnosis-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T13:08:56+00:00</t>
+    <t>2023-02-02T13:10:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-diagnosis-encounter.xlsx
+++ b/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-diagnosis-encounter.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="472">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2710" uniqueCount="471">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-02T13:10:09+00:00</t>
+    <t>2023-02-03T13:32:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -643,12 +643,6 @@
     <t>Concepts representing classification of patient encounter such as ambulatory (outpatient), inpatient, emergency, home health or others due to local variations.</t>
   </si>
   <si>
-    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
-  &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ActCode"/&gt;
-  &lt;code value="PRENC"/&gt;
-&lt;/valueCoding&gt;</t>
-  </si>
-  <si>
     <t>extensible</t>
   </si>
   <si>
@@ -783,7 +777,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group)
+    <t xml:space="preserve">Reference(Patient)
 </t>
   </si>
   <si>
@@ -4061,28 +4055,28 @@
         <v>80</v>
       </c>
       <c r="S20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="T20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Y20" t="s" s="2">
+      <c r="Z20" t="s" s="2">
         <v>202</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>203</v>
       </c>
       <c r="AA20" t="s" s="2">
         <v>80</v>
@@ -4118,21 +4112,21 @@
         <v>80</v>
       </c>
       <c r="AL20" t="s" s="2">
+        <v>203</v>
+      </c>
+      <c r="AM20" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="AM20" t="s" s="2">
+      <c r="AN20" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>206</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4158,10 +4152,10 @@
         <v>172</v>
       </c>
       <c r="L21" t="s" s="2">
+        <v>207</v>
+      </c>
+      <c r="M21" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>209</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4212,7 +4206,7 @@
         <v>80</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>78</v>
@@ -4241,10 +4235,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4353,10 +4347,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4467,10 +4461,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4583,10 +4577,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4612,10 +4606,10 @@
         <v>197</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>215</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4642,14 +4636,14 @@
         <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>201</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="Z25" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="AA25" t="s" s="2">
         <v>80</v>
       </c>
@@ -4666,7 +4660,7 @@
         <v>80</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>87</v>
@@ -4695,10 +4689,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4724,10 +4718,10 @@
         <v>193</v>
       </c>
       <c r="L26" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="M26" t="s" s="2">
         <v>217</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>218</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -4778,7 +4772,7 @@
         <v>80</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>87</v>
@@ -4807,10 +4801,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4833,16 +4827,16 @@
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="L27" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>221</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -4868,14 +4862,14 @@
         <v>80</v>
       </c>
       <c r="X27" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="Y27" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="Y27" t="s" s="2">
+      <c r="Z27" t="s" s="2">
         <v>225</v>
       </c>
-      <c r="Z27" t="s" s="2">
-        <v>226</v>
-      </c>
       <c r="AA27" t="s" s="2">
         <v>80</v>
       </c>
@@ -4892,7 +4886,7 @@
         <v>80</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>78</v>
@@ -4907,24 +4901,24 @@
         <v>99</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="AN27" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>205</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>229</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4947,13 +4941,13 @@
         <v>88</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L28" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="M28" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="M28" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -4980,14 +4974,14 @@
         <v>80</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="Z28" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="Z28" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="AA28" t="s" s="2">
         <v>80</v>
       </c>
@@ -5004,7 +4998,7 @@
         <v>80</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>78</v>
@@ -5019,7 +5013,7 @@
         <v>99</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>176</v>
@@ -5028,15 +5022,15 @@
         <v>80</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5059,13 +5053,13 @@
         <v>80</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L29" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5092,14 +5086,14 @@
         <v>80</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Y29" t="s" s="2">
+        <v>237</v>
+      </c>
+      <c r="Z29" t="s" s="2">
         <v>238</v>
       </c>
-      <c r="Z29" t="s" s="2">
-        <v>239</v>
-      </c>
       <c r="AA29" t="s" s="2">
         <v>80</v>
       </c>
@@ -5116,7 +5110,7 @@
         <v>80</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>78</v>
@@ -5134,25 +5128,25 @@
         <v>80</v>
       </c>
       <c r="AL29" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="AM29" t="s" s="2">
         <v>240</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AN29" t="s" s="2">
         <v>241</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>242</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5171,16 +5165,16 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L30" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="M30" t="s" s="2">
+      <c r="N30" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>248</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5230,7 +5224,7 @@
         <v>80</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>78</v>
@@ -5245,24 +5239,24 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AL30" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="AM30" t="s" s="2">
+      <c r="AN30" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="AN30" t="s" s="2">
-        <v>252</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5285,13 +5279,13 @@
         <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="L31" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="L31" t="s" s="2">
+      <c r="M31" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5342,7 +5336,7 @@
         <v>80</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>78</v>
@@ -5357,28 +5351,28 @@
         <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>176</v>
       </c>
       <c r="AM31" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="AN31" t="s" s="2">
         <v>258</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>259</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
@@ -5397,13 +5391,13 @@
         <v>80</v>
       </c>
       <c r="K32" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L32" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L32" t="s" s="2">
+      <c r="M32" t="s" s="2">
         <v>263</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>264</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5454,7 +5448,7 @@
         <v>80</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>78</v>
@@ -5469,10 +5463,10 @@
         <v>99</v>
       </c>
       <c r="AK32" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>80</v>
@@ -5483,10 +5477,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5512,10 +5506,10 @@
         <v>172</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>268</v>
-      </c>
-      <c r="M33" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5566,7 +5560,7 @@
         <v>80</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>78</v>
@@ -5581,24 +5575,24 @@
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="AL33" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AM33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>272</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5707,10 +5701,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5821,10 +5815,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5937,10 +5931,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5963,16 +5957,16 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="M37" t="s" s="2">
         <v>277</v>
       </c>
-      <c r="M37" t="s" s="2">
+      <c r="N37" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>279</v>
       </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
@@ -5998,13 +5992,13 @@
         <v>80</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>80</v>
@@ -6022,7 +6016,7 @@
         <v>80</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>78</v>
@@ -6037,24 +6031,24 @@
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AL37" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AL37" t="s" s="2">
+      <c r="AM37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN37" t="s" s="2">
         <v>282</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>283</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6080,10 +6074,10 @@
         <v>193</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M38" t="s" s="2">
         <v>285</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>286</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6134,7 +6128,7 @@
         <v>80</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>78</v>
@@ -6152,21 +6146,21 @@
         <v>80</v>
       </c>
       <c r="AL38" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN38" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6189,13 +6183,13 @@
         <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="L39" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="L39" t="s" s="2">
+      <c r="M39" t="s" s="2">
         <v>291</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>292</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6246,7 +6240,7 @@
         <v>80</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>78</v>
@@ -6261,24 +6255,24 @@
         <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>293</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>294</v>
       </c>
-      <c r="AM39" t="s" s="2">
+      <c r="AN39" t="s" s="2">
         <v>295</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>296</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6301,13 +6295,13 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L40" t="s" s="2">
         <v>298</v>
       </c>
-      <c r="L40" t="s" s="2">
+      <c r="M40" t="s" s="2">
         <v>299</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>300</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6358,7 +6352,7 @@
         <v>80</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>78</v>
@@ -6373,24 +6367,24 @@
         <v>99</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="AL40" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN40" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN40" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6416,13 +6410,13 @@
         <v>193</v>
       </c>
       <c r="L41" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="M41" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="M41" t="s" s="2">
+      <c r="N41" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -6472,7 +6466,7 @@
         <v>80</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>78</v>
@@ -6487,24 +6481,24 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AL41" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>308</v>
       </c>
-      <c r="AM41" t="s" s="2">
+      <c r="AN41" t="s" s="2">
         <v>309</v>
-      </c>
-      <c r="AN41" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6527,16 +6521,16 @@
         <v>80</v>
       </c>
       <c r="K42" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="L42" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="M42" t="s" s="2">
+      <c r="N42" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6586,7 +6580,7 @@
         <v>80</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>78</v>
@@ -6601,28 +6595,28 @@
         <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AL42" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN42" t="s" s="2">
         <v>316</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN42" t="s" s="2">
-        <v>317</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
@@ -6641,16 +6635,16 @@
         <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L43" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="M43" t="s" s="2">
         <v>320</v>
       </c>
-      <c r="M43" t="s" s="2">
+      <c r="N43" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6679,11 +6673,11 @@
         <v>111</v>
       </c>
       <c r="Y43" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="Z43" t="s" s="2">
         <v>323</v>
       </c>
-      <c r="Z43" t="s" s="2">
-        <v>324</v>
-      </c>
       <c r="AA43" t="s" s="2">
         <v>80</v>
       </c>
@@ -6700,7 +6694,7 @@
         <v>80</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>78</v>
@@ -6715,28 +6709,28 @@
         <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL43" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AM43" t="s" s="2">
+      <c r="AN43" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>328</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
@@ -6755,16 +6749,16 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="L44" t="s" s="2">
-        <v>331</v>
-      </c>
       <c r="M44" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="N44" t="s" s="2">
         <v>321</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>322</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -6814,7 +6808,7 @@
         <v>80</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>78</v>
@@ -6829,24 +6823,24 @@
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AL44" t="s" s="2">
         <v>325</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>326</v>
       </c>
-      <c r="AM44" t="s" s="2">
+      <c r="AN44" t="s" s="2">
         <v>327</v>
-      </c>
-      <c r="AN44" t="s" s="2">
-        <v>328</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6872,10 +6866,10 @@
         <v>172</v>
       </c>
       <c r="L45" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="M45" t="s" s="2">
         <v>333</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>334</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -6926,7 +6920,7 @@
         <v>80</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>78</v>
@@ -6944,7 +6938,7 @@
         <v>80</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>80</v>
@@ -6955,10 +6949,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7067,10 +7061,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7181,10 +7175,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7297,14 +7291,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7323,16 +7317,16 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="M49" t="s" s="2">
         <v>342</v>
       </c>
-      <c r="M49" t="s" s="2">
-        <v>343</v>
-      </c>
       <c r="N49" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7382,7 +7376,7 @@
         <v>80</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>87</v>
@@ -7397,24 +7391,24 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AL49" t="s" s="2">
         <v>344</v>
       </c>
-      <c r="AL49" t="s" s="2">
+      <c r="AM49" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AN49" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7437,13 +7431,13 @@
         <v>80</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="M50" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7473,11 +7467,11 @@
         <v>111</v>
       </c>
       <c r="Y50" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Z50" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="Z50" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="AA50" t="s" s="2">
         <v>80</v>
       </c>
@@ -7494,7 +7488,7 @@
         <v>80</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>78</v>
@@ -7523,10 +7517,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7549,13 +7543,13 @@
         <v>80</v>
       </c>
       <c r="K51" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="L51" t="s" s="2">
         <v>353</v>
       </c>
-      <c r="L51" t="s" s="2">
+      <c r="M51" t="s" s="2">
         <v>354</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>355</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
@@ -7606,7 +7600,7 @@
         <v>80</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>78</v>
@@ -7624,7 +7618,7 @@
         <v>80</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>80</v>
@@ -7635,10 +7629,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7661,16 +7655,16 @@
         <v>80</v>
       </c>
       <c r="K52" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="L52" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>359</v>
       </c>
-      <c r="M52" t="s" s="2">
+      <c r="N52" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>361</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7720,7 +7714,7 @@
         <v>80</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>78</v>
@@ -7738,7 +7732,7 @@
         <v>80</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>80</v>
@@ -7749,10 +7743,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7778,13 +7772,13 @@
         <v>172</v>
       </c>
       <c r="L53" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="M53" t="s" s="2">
         <v>364</v>
       </c>
-      <c r="M53" t="s" s="2">
+      <c r="N53" t="s" s="2">
         <v>365</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>366</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7834,7 +7828,7 @@
         <v>80</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>78</v>
@@ -7852,7 +7846,7 @@
         <v>80</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>80</v>
@@ -7863,10 +7857,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7975,10 +7969,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8089,10 +8083,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8205,10 +8199,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8234,10 +8228,10 @@
         <v>152</v>
       </c>
       <c r="L57" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="M57" t="s" s="2">
         <v>372</v>
-      </c>
-      <c r="M57" t="s" s="2">
-        <v>373</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -8288,7 +8282,7 @@
         <v>80</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>78</v>
@@ -8312,15 +8306,15 @@
         <v>80</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8343,13 +8337,13 @@
         <v>80</v>
       </c>
       <c r="K58" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="L58" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="L58" t="s" s="2">
+      <c r="M58" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
@@ -8400,7 +8394,7 @@
         <v>80</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>78</v>
@@ -8418,7 +8412,7 @@
         <v>80</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>80</v>
@@ -8429,10 +8423,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8455,13 +8449,13 @@
         <v>80</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L59" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="M59" t="s" s="2">
         <v>381</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -8491,11 +8485,11 @@
         <v>111</v>
       </c>
       <c r="Y59" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="Z59" t="s" s="2">
         <v>383</v>
       </c>
-      <c r="Z59" t="s" s="2">
-        <v>384</v>
-      </c>
       <c r="AA59" t="s" s="2">
         <v>80</v>
       </c>
@@ -8512,7 +8506,7 @@
         <v>80</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>78</v>
@@ -8530,21 +8524,21 @@
         <v>80</v>
       </c>
       <c r="AL59" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN59" t="s" s="2">
         <v>385</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>386</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8567,13 +8561,13 @@
         <v>80</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L60" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="M60" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>389</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8600,14 +8594,14 @@
         <v>80</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Y60" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="Z60" t="s" s="2">
         <v>390</v>
       </c>
-      <c r="Z60" t="s" s="2">
-        <v>391</v>
-      </c>
       <c r="AA60" t="s" s="2">
         <v>80</v>
       </c>
@@ -8624,7 +8618,7 @@
         <v>80</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>78</v>
@@ -8648,15 +8642,15 @@
         <v>80</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8679,19 +8673,19 @@
         <v>80</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L61" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="M61" t="s" s="2">
         <v>394</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>395</v>
       </c>
-      <c r="N61" t="s" s="2">
+      <c r="O61" t="s" s="2">
         <v>396</v>
-      </c>
-      <c r="O61" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>80</v>
@@ -8716,14 +8710,14 @@
         <v>80</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Y61" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="Z61" t="s" s="2">
         <v>398</v>
       </c>
-      <c r="Z61" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="AA61" t="s" s="2">
         <v>80</v>
       </c>
@@ -8740,7 +8734,7 @@
         <v>80</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>78</v>
@@ -8758,21 +8752,21 @@
         <v>80</v>
       </c>
       <c r="AL61" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN61" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN61" t="s" s="2">
-        <v>401</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8795,13 +8789,13 @@
         <v>80</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L62" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="M62" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>404</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8831,11 +8825,11 @@
         <v>111</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="Z62" t="s" s="2">
         <v>405</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>406</v>
-      </c>
       <c r="AA62" t="s" s="2">
         <v>80</v>
       </c>
@@ -8852,7 +8846,7 @@
         <v>80</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>78</v>
@@ -8870,21 +8864,21 @@
         <v>80</v>
       </c>
       <c r="AL62" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN62" t="s" s="2">
         <v>407</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN62" t="s" s="2">
-        <v>408</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -8907,13 +8901,13 @@
         <v>80</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L63" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="M63" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>411</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
@@ -8943,11 +8937,11 @@
         <v>111</v>
       </c>
       <c r="Y63" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="Z63" t="s" s="2">
         <v>412</v>
       </c>
-      <c r="Z63" t="s" s="2">
-        <v>413</v>
-      </c>
       <c r="AA63" t="s" s="2">
         <v>80</v>
       </c>
@@ -8964,7 +8958,7 @@
         <v>80</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>78</v>
@@ -8982,21 +8976,21 @@
         <v>80</v>
       </c>
       <c r="AL63" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="AM63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN63" t="s" s="2">
         <v>414</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN63" t="s" s="2">
-        <v>415</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9019,13 +9013,13 @@
         <v>80</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="L64" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="M64" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9076,7 +9070,7 @@
         <v>80</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>78</v>
@@ -9094,21 +9088,21 @@
         <v>80</v>
       </c>
       <c r="AL64" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN64" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>420</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9131,13 +9125,13 @@
         <v>80</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L65" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M65" t="s" s="2">
         <v>422</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>423</v>
       </c>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
@@ -9164,14 +9158,14 @@
         <v>80</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Y65" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="Z65" t="s" s="2">
         <v>424</v>
       </c>
-      <c r="Z65" t="s" s="2">
-        <v>425</v>
-      </c>
       <c r="AA65" t="s" s="2">
         <v>80</v>
       </c>
@@ -9188,7 +9182,7 @@
         <v>80</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>78</v>
@@ -9206,21 +9200,21 @@
         <v>80</v>
       </c>
       <c r="AL65" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN65" t="s" s="2">
         <v>426</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>427</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9246,13 +9240,13 @@
         <v>172</v>
       </c>
       <c r="L66" t="s" s="2">
+        <v>428</v>
+      </c>
+      <c r="M66" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="M66" t="s" s="2">
+      <c r="N66" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="N66" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="O66" s="2"/>
       <c r="P66" t="s" s="2">
@@ -9302,7 +9296,7 @@
         <v>80</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>78</v>
@@ -9320,7 +9314,7 @@
         <v>80</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>80</v>
@@ -9331,10 +9325,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9443,10 +9437,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9557,10 +9551,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9673,10 +9667,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9699,13 +9693,13 @@
         <v>80</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="L70" t="s" s="2">
+      <c r="M70" t="s" s="2">
         <v>438</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>439</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9756,7 +9750,7 @@
         <v>80</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>87</v>
@@ -9771,24 +9765,24 @@
         <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AM70" t="s" s="2">
         <v>440</v>
       </c>
-      <c r="AL70" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AM70" t="s" s="2">
+      <c r="AN70" t="s" s="2">
         <v>441</v>
-      </c>
-      <c r="AN70" t="s" s="2">
-        <v>442</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9814,13 +9808,13 @@
         <v>107</v>
       </c>
       <c r="L71" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="M71" t="s" s="2">
         <v>444</v>
       </c>
-      <c r="M71" t="s" s="2">
+      <c r="N71" t="s" s="2">
         <v>445</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>446</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -9849,11 +9843,11 @@
         <v>164</v>
       </c>
       <c r="Y71" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="Z71" t="s" s="2">
         <v>447</v>
       </c>
-      <c r="Z71" t="s" s="2">
-        <v>448</v>
-      </c>
       <c r="AA71" t="s" s="2">
         <v>80</v>
       </c>
@@ -9870,7 +9864,7 @@
         <v>80</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>78</v>
@@ -9888,7 +9882,7 @@
         <v>80</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>80</v>
@@ -9899,10 +9893,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9925,16 +9919,16 @@
         <v>80</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L72" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="M72" t="s" s="2">
         <v>451</v>
       </c>
-      <c r="M72" t="s" s="2">
+      <c r="N72" t="s" s="2">
         <v>452</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>453</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -9960,14 +9954,14 @@
         <v>80</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Y72" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="Z72" t="s" s="2">
         <v>454</v>
       </c>
-      <c r="Z72" t="s" s="2">
-        <v>455</v>
-      </c>
       <c r="AA72" t="s" s="2">
         <v>80</v>
       </c>
@@ -9984,7 +9978,7 @@
         <v>80</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>78</v>
@@ -10013,10 +10007,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10042,10 +10036,10 @@
         <v>193</v>
       </c>
       <c r="L73" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M73" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="M73" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10096,7 +10090,7 @@
         <v>80</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>78</v>
@@ -10114,7 +10108,7 @@
         <v>80</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>80</v>
@@ -10125,10 +10119,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10151,13 +10145,13 @@
         <v>80</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>460</v>
       </c>
-      <c r="L74" t="s" s="2">
+      <c r="M74" t="s" s="2">
         <v>461</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>462</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10208,7 +10202,7 @@
         <v>80</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>78</v>
@@ -10223,24 +10217,24 @@
         <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AL74" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN74" t="s" s="2">
         <v>463</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN74" t="s" s="2">
-        <v>464</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10263,16 +10257,16 @@
         <v>80</v>
       </c>
       <c r="K75" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="L75" t="s" s="2">
         <v>466</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>467</v>
       </c>
-      <c r="M75" t="s" s="2">
+      <c r="N75" t="s" s="2">
         <v>468</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>469</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -10322,7 +10316,7 @@
         <v>80</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>78</v>
@@ -10337,10 +10331,10 @@
         <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AL75" t="s" s="2">
         <v>470</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>471</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>80</v>

--- a/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-diagnosis-encounter.xlsx
+++ b/branches/HIVDiagnosisEncouner--FIG-37/StructureDefinition-hiv-diagnosis-encounter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T13:32:48+00:00</t>
+    <t>2023-02-03T13:32:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
